--- a/Test_out.xlsx
+++ b/Test_out.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\IdeaProjects\ExcelCharts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://confederacaosicredi-my.sharepoint.com/personal/matheus_hilbert_sicredi_com_br/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="21840" windowHeight="13140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId3"/>
-    <sheet name="Gráfico" sheetId="2" r:id="rId4"/>
+    <sheet name="Gráficos" sheetId="2" r:id="rId4"/>
     <sheet name="Evaluation Warning" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames/>
@@ -38,21 +38,138 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="45">
+  <si>
+    <t>Produto/Sistema</t>
+  </si>
+  <si>
+    <t>Recusas Vida</t>
+  </si>
   <si>
     <t>Vida do Meu Jeito</t>
   </si>
   <si>
-    <t>Arquivos Cross</t>
-  </si>
-  <si>
-    <t>Minha empresa</t>
-  </si>
-  <si>
-    <t>Nº incidentes</t>
-  </si>
-  <si>
-    <t>Sistema impactado</t>
+    <t>VIda Minha Empresa</t>
+  </si>
+  <si>
+    <t>Vida Minha Empresa</t>
+  </si>
+  <si>
+    <t>Vida minha empresa</t>
+  </si>
+  <si>
+    <t>2ª Via de Apólice</t>
+  </si>
+  <si>
+    <t>Agrícola</t>
+  </si>
+  <si>
+    <t>Agrícola/Agristamp</t>
+  </si>
+  <si>
+    <t>Arquivos Cancelamento</t>
+  </si>
+  <si>
+    <t>Arquivos de comissão</t>
+  </si>
+  <si>
+    <t>Arquivos de Comissão</t>
+  </si>
+  <si>
+    <t>Arquivos de Emissão</t>
+  </si>
+  <si>
+    <t>Arquivos de Sinistro</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>Auto/MPW</t>
+  </si>
+  <si>
+    <t>Central de Sinistro</t>
+  </si>
+  <si>
+    <t>Cobrança/Rural</t>
+  </si>
+  <si>
+    <t>Empresarial/MPW</t>
+  </si>
+  <si>
+    <t>Endosso Empresarial</t>
+  </si>
+  <si>
+    <t>Endosso Multirisco Rural</t>
+  </si>
+  <si>
+    <t>Endosso Residencial</t>
+  </si>
+  <si>
+    <t>Endossos</t>
+  </si>
+  <si>
+    <t>Extratos de comissão</t>
+  </si>
+  <si>
+    <t>Máquinas e Equipamentos</t>
+  </si>
+  <si>
+    <t>Multirisco Rural</t>
+  </si>
+  <si>
+    <t>Naútico</t>
+  </si>
+  <si>
+    <t>Penhor Rural</t>
+  </si>
+  <si>
+    <t>Penhor Rural/Agristamp</t>
+  </si>
+  <si>
+    <t>Relatório de Inadimplência</t>
+  </si>
+  <si>
+    <t>Relatório de Recusas</t>
+  </si>
+  <si>
+    <t>Relatórios</t>
+  </si>
+  <si>
+    <t>Residencial</t>
+  </si>
+  <si>
+    <t>Residencial/APP</t>
+  </si>
+  <si>
+    <t>Residencial/MPW</t>
+  </si>
+  <si>
+    <t>Rural Simplificado</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Em análise Cia</t>
+  </si>
+  <si>
+    <t>Em análise Corretora</t>
+  </si>
+  <si>
+    <t>Em análise Integração à Serviços</t>
+  </si>
+  <si>
+    <t>Em análise Quiver</t>
+  </si>
+  <si>
+    <t>Em análise CIA</t>
+  </si>
+  <si>
+    <t>Em análise Coop</t>
+  </si>
+  <si>
+    <t>Em análise cia</t>
   </si>
   <si>
     <t>Evaluation Only. Created with Aspose.Cells for Java.Copyright 2003 - 2023 Aspose Pty Ltd.</t>
@@ -62,7 +179,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +195,19 @@
     </font>
     <font>
       <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="18"/>
       <color rgb="FF0000FF"/>
@@ -85,12 +215,24 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF323C32"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA6A6A6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -127,9 +269,15 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
     </xf>
@@ -224,18 +372,34 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr wrap="square"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Incidentes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -245,89 +409,30 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="2E75B6"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:strRef>
-              <c:f>Planilha1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Nº incidentes</c:v>
-                </c:pt>
-              </c:strCache>
+              <c:f>Gráficos!$A$1:$A$35</c:f>
+              <c:strCache/>
             </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$B$2:$B$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>Gráficos!$B$1:$B$35</c:f>
+              <c:numCache/>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-272F-484E-894F-900D37AB8FE1}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Planilha1!#REF!</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#REF!</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Planilha1!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-272F-484E-894F-900D37AB8FE1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="0"/>
-        </c:dLbls>
-        <c:axId val="315805187"/>
-        <c:axId val="2119992687"/>
+        <c:axId val="1828508781"/>
+        <c:axId val="1376017854"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="315805187"/>
+        <c:axId val="1828508781"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -337,116 +442,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6350" cap="flat" cmpd="sng"/>
-        </c:spPr>
-        <c:crossAx val="2119992687"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2119992687"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="6350" cap="flat" cmpd="sng"/>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6350" cap="flat" cmpd="sng"/>
-        </c:spPr>
-        <c:crossAx val="315805187"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="C0C0C0"/>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="808080"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Planilha1!$B$1</c:f>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Planilha1!$A$2:$A$4</c:f>
-              <c:strCache/>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Planilha1!$B$2:$B$4</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="872669868"/>
-        <c:axId val="1706099897"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="872669868"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1706099897"/>
+        <c:crossAx val="1376017854"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1706099897"/>
+        <c:axId val="1376017854"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -461,13 +463,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="872669868"/>
+        <c:crossAx val="1828508781"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="C0C0C0"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="12700">
           <a:solidFill>
@@ -476,15 +479,15 @@
         </a:ln>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+  </c:spPr>
 </c:chartSpace>
 </file>
 
@@ -492,71 +495,35 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="1" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77345f85-5b0a-441a-ad90-a75a47e5bd72}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{089c6bfe-df83-4661-a9b0-fa7dea0cd84b}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="952500"/>
-        <a:ext cx="3048000" cy="1905000"/>
+        <a:off x="3657600" y="190500"/>
+        <a:ext cx="11582400" cy="5905500"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0bb612a5-3535-45f1-b822-b43ad988b8b3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="952500"/>
-        <a:ext cx="3048000" cy="1905000"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -861,73 +828,871 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47A6F69-6DA5-4C64-B738-F955FC1F72C9}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D449BFCD-03A2-444C-85D2-F7F4426CBCA1}">
+  <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="topLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.142857142857142" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="24">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="36">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="36">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="36">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="36">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="36">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="36">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="60">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="36">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="36">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="36">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="36">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="36">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="36">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="36">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="36">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="36">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="36">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="36">
+      <c r="A19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="36">
+      <c r="A20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="36">
+      <c r="A21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="36">
+      <c r="A22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="36">
+      <c r="A23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="36">
+      <c r="A24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="36">
+      <c r="A25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="36">
+      <c r="A26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="36">
+      <c r="A27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="36">
+      <c r="A28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="48">
+      <c r="A29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="36">
+      <c r="A30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="36">
+      <c r="A31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="36">
+      <c r="A32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="36">
+      <c r="A33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="36">
+      <c r="A34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="36">
+      <c r="A35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="36">
+      <c r="A36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="60">
+      <c r="A37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="36">
+      <c r="A38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="36">
+      <c r="A39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="60">
+      <c r="A40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="60">
+      <c r="A41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="60">
+      <c r="A42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="36">
+      <c r="A43" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="36">
+      <c r="A44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="36">
+      <c r="A45" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="36">
+      <c r="A46" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="36">
+      <c r="A47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="36">
+      <c r="A48" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="36">
+      <c r="A49" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="36">
+      <c r="A50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="36">
+      <c r="A51" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="36">
+      <c r="A52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="36">
+      <c r="A53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="36">
+      <c r="A54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="36">
+      <c r="A55" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="36">
+      <c r="A56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="36">
+      <c r="A57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="36">
+      <c r="A58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="36">
+      <c r="A59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="36">
+      <c r="A60" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="36">
+      <c r="A61" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="36">
+      <c r="A62" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="36">
+      <c r="A63" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="36">
+      <c r="A64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="36">
+      <c r="A65" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
+      <c r="B65" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="36">
+      <c r="A66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="36">
+      <c r="A67" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="36">
+      <c r="A68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="36">
+      <c r="A69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000d_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Classificação da informação: Uso Interno</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA5F89E-885E-4D6F-AE39-B818AA030DB5}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{cd1c9051-5fc0-449c-bd21-9f88aef88202}">
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="J13" sqref="J13"/>
-    </sheetView>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304f15c1-e8d7-41f0-90b1-76fa7b38fc73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6bf060c0-6fd4-4f92-9b56-58232e1bf33a}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
@@ -935,8 +1700,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="5" spans="1:1" ht="23.25" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
+      <c r="A5" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
